--- a/Project 2/data_sets/order_20.xlsx
+++ b/Project 2/data_sets/order_20.xlsx
@@ -43,7 +43,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -91,9 +91,6 @@
     </xf>
     <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -400,14 +397,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -420,215 +417,203 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3">
-        <v>2.5139351851851854</v>
+        <v>3.513935185185185</v>
       </c>
       <c r="B2" s="3">
-        <v>2.5142939814814813</v>
+        <v>3.5142939814814813</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3">
-        <v>2.514363425925926</v>
+        <v>3.514363425925926</v>
       </c>
       <c r="B3" s="3">
-        <v>2.5155324074074077</v>
+        <v>3.5155324074074072</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3">
-        <v>2.5156944444444447</v>
+        <v>3.5156944444444442</v>
       </c>
       <c r="B4" s="3">
-        <v>2.517210648148148</v>
+        <v>3.517210648148148</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
-        <v>2.5158449074074074</v>
+        <v>3.5158449074074074</v>
       </c>
       <c r="B5" s="3">
-        <v>2.5163078703703703</v>
+        <v>3.5163078703703703</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3">
-        <v>2.516354166666667</v>
+        <v>3.5163541666666664</v>
       </c>
       <c r="B6" s="3">
-        <v>2.5214930555555553</v>
+        <v>3.5214930555555557</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3">
-        <v>2.517256944444444</v>
+        <v>3.5172569444444446</v>
       </c>
       <c r="B7" s="3">
-        <v>2.5205671296296295</v>
+        <v>3.5205671296296295</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3">
-        <v>2.5206134259259256</v>
+        <v>3.520613425925926</v>
       </c>
       <c r="B8" s="3">
-        <v>2.523136574074074</v>
+        <v>3.523136574074074</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3">
-        <v>2.5215972222222223</v>
+        <v>3.5215972222222223</v>
       </c>
       <c r="B9" s="3">
-        <v>2.5228819444444444</v>
+        <v>3.5228819444444444</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3">
-        <v>2.522951388888889</v>
+        <v>3.522951388888889</v>
       </c>
       <c r="B10" s="3">
-        <v>2.524502314814815</v>
+        <v>3.5245023148148147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3">
-        <v>2.5232175925925926</v>
+        <v>3.5232175925925926</v>
       </c>
       <c r="B11" s="3">
-        <v>2.5251157407407407</v>
+        <v>3.5251157407407407</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3">
-        <v>2.524583333333333</v>
+        <v>3.524583333333333</v>
       </c>
       <c r="B12" s="3">
-        <v>2.5255555555555556</v>
+        <v>3.5255555555555556</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3">
-        <v>2.5252083333333335</v>
+        <v>3.5252083333333335</v>
       </c>
       <c r="B13" s="3">
-        <v>2.5259375</v>
+        <v>3.5259375</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3">
-        <v>2.5256481481481483</v>
+        <v>3.5256481481481483</v>
       </c>
       <c r="B14" s="3">
-        <v>2.527789351851852</v>
+        <v>3.527789351851852</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3">
-        <v>2.5261921296296297</v>
+        <v>3.5261921296296297</v>
       </c>
       <c r="B15" s="3">
-        <v>2.528414351851852</v>
+        <v>3.528414351851852</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3">
-        <v>2.5278472222222224</v>
+        <v>3.5278472222222224</v>
       </c>
       <c r="B16" s="3">
-        <v>2.5300462962962964</v>
+        <v>3.5300462962962964</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3">
-        <v>2.5285416666666665</v>
+        <v>3.5285416666666665</v>
       </c>
       <c r="B17" s="3">
-        <v>2.530289351851852</v>
+        <v>3.530289351851852</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3">
-        <v>2.530150462962963</v>
+        <v>3.530150462962963</v>
       </c>
       <c r="B18" s="3">
-        <v>2.5315856481481482</v>
+        <v>3.5315856481481482</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3">
-        <v>2.5303472222222223</v>
+        <v>3.5303472222222223</v>
       </c>
       <c r="B19" s="3">
-        <v>2.532314814814815</v>
+        <v>3.5323148148148147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3">
-        <v>2.531701388888889</v>
+        <v>3.532465277777778</v>
       </c>
       <c r="B20" s="3">
-        <v>2.8246875</v>
+        <v>3.5343055555555556</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3">
-        <v>2.532465277777778</v>
+        <v>3.533101851851852</v>
       </c>
       <c r="B21" s="3">
-        <v>2.5343055555555556</v>
+        <v>3.5343981481481483</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3">
-        <v>2.5331018518518515</v>
+        <v>3.5344560185185183</v>
       </c>
       <c r="B22" s="3">
-        <v>2.5343981481481483</v>
+        <v>3.534988425925926</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3">
-        <v>2.5344560185185188</v>
+        <v>3.534826388888889</v>
       </c>
       <c r="B23" s="3">
-        <v>2.534988425925926</v>
+        <v>3.5367939814814813</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3">
-        <v>2.534826388888889</v>
+        <v>3.5350694444444444</v>
       </c>
       <c r="B24" s="3">
-        <v>2.5367939814814813</v>
+        <v>3.5375347222222224</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3">
-        <v>2.5350694444444444</v>
+        <v>3.5370601851851853</v>
       </c>
       <c r="B25" s="3">
-        <v>2.5375347222222224</v>
+        <v>3.5387037037037037</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3">
-        <v>2.5370601851851853</v>
+        <v>3.53775462962963</v>
       </c>
       <c r="B26" s="3">
-        <v>2.5387037037037037</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="3">
-        <v>2.53775462962963</v>
-      </c>
-      <c r="B27" s="3">
-        <v>2.5408564814814816</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
+        <v>3.5408564814814816</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
